--- a/sample/spread_sheets/page_margin.xlsx
+++ b/sample/spread_sheets/page_margin.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5550D8DA-47AF-449F-961F-D04631207B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{5550D8DA-47AF-449F-961F-D04631207B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E740E9-EA75-4BED-9F78-20C3F60DE7D4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>本文Q</t>
   </si>
@@ -67,13 +67,31 @@
   </si>
   <si>
     <t>地</t>
+  </si>
+  <si>
+    <t>CSS本サンプル</t>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LangChain本</t>
+    <rPh sb="9" eb="10">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>かまほん</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -99,6 +117,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -143,11 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -366,19 +392,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:H6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="7" width="9.77734375" customWidth="1"/>
+    <col min="2" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>13</v>
       </c>
@@ -427,7 +458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -450,7 +481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>24</v>
       </c>
@@ -474,6 +505,212 @@
       <c r="H6" s="3">
         <f>E6-F6-G6</f>
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <f>B10/4</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2">
+        <v>148</v>
+      </c>
+      <c r="F10" s="3">
+        <f>C10*D10</f>
+        <v>114</v>
+      </c>
+      <c r="G10" s="2">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3">
+        <f>E10-F10-G10</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <f>B13/4</f>
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2">
+        <v>210</v>
+      </c>
+      <c r="F13" s="3">
+        <f>C13*D13</f>
+        <v>175</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3">
+        <f>E13-F13-G13</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3">
+        <f>B17/4</f>
+        <v>3.25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2">
+        <v>148</v>
+      </c>
+      <c r="F17" s="3">
+        <f>C17*D17</f>
+        <v>110.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="H17" s="3">
+        <f>E17-F17-G17</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3">
+        <f>B20/4</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2">
+        <v>210</v>
+      </c>
+      <c r="F20" s="3">
+        <f>C20*D20</f>
+        <v>186</v>
+      </c>
+      <c r="G20" s="2">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3">
+        <f>E20-F20-G20</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
